--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H2">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I2">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J2">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>790.745816029059</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N2">
-        <v>790.745816029059</v>
+        <v>2463.688598</v>
       </c>
       <c r="O2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P2">
-        <v>0.8405344483347963</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q2">
-        <v>5645.110505576029</v>
+        <v>6214.3947061795</v>
       </c>
       <c r="R2">
-        <v>5645.110505576029</v>
+        <v>55929.55235561549</v>
       </c>
       <c r="S2">
-        <v>0.1750295291579386</v>
+        <v>0.175666262625871</v>
       </c>
       <c r="T2">
-        <v>0.1750295291579386</v>
+        <v>0.1756662626258709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H3">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I3">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J3">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.7719676100087</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N3">
-        <v>74.7719676100087</v>
+        <v>224.983445</v>
       </c>
       <c r="O3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P3">
-        <v>0.0794799204396629</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q3">
-        <v>533.7948191714986</v>
+        <v>567.4970167581329</v>
       </c>
       <c r="R3">
-        <v>533.7948191714986</v>
+        <v>5107.473150823196</v>
       </c>
       <c r="S3">
-        <v>0.01655058050223248</v>
+        <v>0.01604180048076157</v>
       </c>
       <c r="T3">
-        <v>0.01655058050223248</v>
+        <v>0.01604180048076157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H4">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I4">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J4">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84345566615913</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N4">
-        <v>3.84345566615913</v>
+        <v>12.20766</v>
       </c>
       <c r="O4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P4">
-        <v>0.004085455556726705</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q4">
-        <v>27.43831395492744</v>
+        <v>30.79253512007334</v>
       </c>
       <c r="R4">
-        <v>27.43831395492744</v>
+        <v>277.1328160806601</v>
       </c>
       <c r="S4">
-        <v>0.0008507389124933695</v>
+        <v>0.0008704322491682613</v>
       </c>
       <c r="T4">
-        <v>0.0008507389124933695</v>
+        <v>0.0008704322491682612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.13896980691527</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H5">
-        <v>7.13896980691527</v>
+        <v>22.701551</v>
       </c>
       <c r="I5">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J5">
-        <v>0.2082359973522726</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>71.404267207475</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N5">
-        <v>71.404267207475</v>
+        <v>2.375885</v>
       </c>
       <c r="O5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P5">
-        <v>0.07590017566881417</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q5">
-        <v>509.7529076790742</v>
+        <v>5.992919388626113</v>
       </c>
       <c r="R5">
-        <v>509.7529076790742</v>
+        <v>53.93627449763501</v>
       </c>
       <c r="S5">
-        <v>0.01580514877960821</v>
+        <v>0.0001694056784277359</v>
       </c>
       <c r="T5">
-        <v>0.01580514877960821</v>
+        <v>0.0001694056784277359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.246812125344951</v>
+        <v>7.567183666666668</v>
       </c>
       <c r="H6">
-        <v>8.246812125344951</v>
+        <v>22.701551</v>
       </c>
       <c r="I6">
-        <v>0.2405505548201855</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="J6">
-        <v>0.2405505548201855</v>
+        <v>0.2104710071241515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>790.745816029059</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N6">
-        <v>790.745816029059</v>
+        <v>248.563462</v>
       </c>
       <c r="O6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P6">
-        <v>0.8405344483347963</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q6">
-        <v>6521.132183694232</v>
+        <v>626.9751232588403</v>
       </c>
       <c r="R6">
-        <v>6521.132183694232</v>
+        <v>5642.776109329563</v>
       </c>
       <c r="S6">
-        <v>0.2021910278924138</v>
+        <v>0.01772310608992302</v>
       </c>
       <c r="T6">
-        <v>0.2021910278924138</v>
+        <v>0.01772310608992302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H7">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I7">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J7">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.7719676100087</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N7">
-        <v>74.7719676100087</v>
+        <v>2463.688598</v>
       </c>
       <c r="O7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P7">
-        <v>0.0794799204396629</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q7">
-        <v>616.6303691221196</v>
+        <v>6940.19846212301</v>
       </c>
       <c r="R7">
-        <v>616.6303691221196</v>
+        <v>62461.78615910708</v>
       </c>
       <c r="S7">
-        <v>0.01911893895882511</v>
+        <v>0.196183020771219</v>
       </c>
       <c r="T7">
-        <v>0.01911893895882511</v>
+        <v>0.196183020771219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H8">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I8">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J8">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.84345566615913</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N8">
-        <v>3.84345566615913</v>
+        <v>224.983445</v>
       </c>
       <c r="O8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P8">
-        <v>0.004085455556726705</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q8">
-        <v>31.69625679090687</v>
+        <v>633.7772396477751</v>
       </c>
       <c r="R8">
-        <v>31.69625679090687</v>
+        <v>5703.995156829976</v>
       </c>
       <c r="S8">
-        <v>0.0009827586008638186</v>
+        <v>0.01791538585657546</v>
       </c>
       <c r="T8">
-        <v>0.0009827586008638186</v>
+        <v>0.01791538585657546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.246812125344951</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H9">
-        <v>8.246812125344951</v>
+        <v>25.352955</v>
       </c>
       <c r="I9">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J9">
-        <v>0.2405505548201855</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.404267207475</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N9">
-        <v>71.404267207475</v>
+        <v>12.20766</v>
       </c>
       <c r="O9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P9">
-        <v>0.07590017566881417</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q9">
-        <v>588.8575766079757</v>
+        <v>34.38891718170001</v>
       </c>
       <c r="R9">
-        <v>588.8575766079757</v>
+        <v>309.5002546353001</v>
       </c>
       <c r="S9">
-        <v>0.01825782936808279</v>
+        <v>0.0009720934769484127</v>
       </c>
       <c r="T9">
-        <v>0.01825782936808279</v>
+        <v>0.0009720934769484126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.42285064289895</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H10">
-        <v>9.42285064289895</v>
+        <v>25.352955</v>
       </c>
       <c r="I10">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J10">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>790.745816029059</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N10">
-        <v>790.745816029059</v>
+        <v>2.375885</v>
       </c>
       <c r="O10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P10">
-        <v>0.8405344483347963</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q10">
-        <v>7451.079720939074</v>
+        <v>6.692856165575002</v>
       </c>
       <c r="R10">
-        <v>7451.079720939074</v>
+        <v>60.23570549017501</v>
       </c>
       <c r="S10">
-        <v>0.231024525381041</v>
+        <v>0.0001891912381635448</v>
       </c>
       <c r="T10">
-        <v>0.231024525381041</v>
+        <v>0.0001891912381635448</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.42285064289895</v>
+        <v>8.450985000000001</v>
       </c>
       <c r="H11">
-        <v>9.42285064289895</v>
+        <v>25.352955</v>
       </c>
       <c r="I11">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="J11">
-        <v>0.2748543213650902</v>
+        <v>0.2350527491457871</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.7719676100087</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N11">
-        <v>74.7719676100087</v>
+        <v>248.563462</v>
       </c>
       <c r="O11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P11">
-        <v>0.0794799204396629</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q11">
-        <v>704.56508306479</v>
+        <v>700.2020296366901</v>
       </c>
       <c r="R11">
-        <v>704.56508306479</v>
+        <v>6301.818266730211</v>
       </c>
       <c r="S11">
-        <v>0.02184539959459491</v>
+        <v>0.0197930578028807</v>
       </c>
       <c r="T11">
-        <v>0.02184539959459491</v>
+        <v>0.0197930578028807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.42285064289895</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H12">
-        <v>9.42285064289895</v>
+        <v>28.330744</v>
       </c>
       <c r="I12">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J12">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.84345566615913</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N12">
-        <v>3.84345566615913</v>
+        <v>2463.688598</v>
       </c>
       <c r="O12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P12">
-        <v>0.004085455556726705</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q12">
-        <v>36.21630869482117</v>
+        <v>7755.347885072991</v>
       </c>
       <c r="R12">
-        <v>36.21630869482117</v>
+        <v>69798.13096565691</v>
       </c>
       <c r="S12">
-        <v>0.001122905114511355</v>
+        <v>0.219225369926941</v>
       </c>
       <c r="T12">
-        <v>0.001122905114511355</v>
+        <v>0.219225369926941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.42285064289895</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H13">
-        <v>9.42285064289895</v>
+        <v>28.330744</v>
       </c>
       <c r="I13">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J13">
-        <v>0.2748543213650902</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.404267207475</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N13">
-        <v>71.404267207475</v>
+        <v>224.983445</v>
       </c>
       <c r="O13">
-        <v>0.07590017566881417</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P13">
-        <v>0.07590017566881417</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q13">
-        <v>672.8317451616842</v>
+        <v>708.2164871703424</v>
       </c>
       <c r="R13">
-        <v>672.8317451616842</v>
+        <v>6373.948384533081</v>
       </c>
       <c r="S13">
-        <v>0.02086149127494305</v>
+        <v>0.02001960759066783</v>
       </c>
       <c r="T13">
-        <v>0.02086149127494305</v>
+        <v>0.02001960759066783</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.06897357444559</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H14">
-        <v>6.06897357444559</v>
+        <v>28.330744</v>
       </c>
       <c r="I14">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J14">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>790.745816029059</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N14">
-        <v>790.745816029059</v>
+        <v>12.20766</v>
       </c>
       <c r="O14">
-        <v>0.8405344483347963</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P14">
-        <v>0.8405344483347963</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q14">
-        <v>4799.015461583774</v>
+        <v>38.42801003322668</v>
       </c>
       <c r="R14">
-        <v>4799.015461583774</v>
+        <v>345.8520902990401</v>
       </c>
       <c r="S14">
-        <v>0.1487959209714291</v>
+        <v>0.00108626909326725</v>
       </c>
       <c r="T14">
-        <v>0.1487959209714291</v>
+        <v>0.001086269093267249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.06897357444559</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H15">
-        <v>6.06897357444559</v>
+        <v>28.330744</v>
       </c>
       <c r="I15">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J15">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>74.7719676100087</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N15">
-        <v>74.7719676100087</v>
+        <v>2.375885</v>
       </c>
       <c r="O15">
-        <v>0.0794799204396629</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P15">
-        <v>0.0794799204396629</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q15">
-        <v>453.7890955344444</v>
+        <v>7.478954412048891</v>
       </c>
       <c r="R15">
-        <v>453.7890955344444</v>
+        <v>67.31058970844002</v>
       </c>
       <c r="S15">
-        <v>0.01406996225316512</v>
+        <v>0.0002114123791666264</v>
       </c>
       <c r="T15">
-        <v>0.01406996225316512</v>
+        <v>0.0002114123791666264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.06897357444559</v>
+        <v>9.443581333333334</v>
       </c>
       <c r="H16">
-        <v>6.06897357444559</v>
+        <v>28.330744</v>
       </c>
       <c r="I16">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504909</v>
       </c>
       <c r="J16">
-        <v>0.1770253691162955</v>
+        <v>0.2626604773504908</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.84345566615913</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N16">
-        <v>3.84345566615913</v>
+        <v>248.563462</v>
       </c>
       <c r="O16">
-        <v>0.004085455556726705</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P16">
-        <v>0.004085455556726705</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q16">
-        <v>23.32583087247293</v>
+        <v>782.4430899639699</v>
       </c>
       <c r="R16">
-        <v>23.32583087247293</v>
+        <v>7041.987809675729</v>
       </c>
       <c r="S16">
-        <v>0.0007232292779377654</v>
+        <v>0.02211781836044815</v>
       </c>
       <c r="T16">
-        <v>0.0007232292779377654</v>
+        <v>0.02211781836044814</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.06897357444559</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H17">
-        <v>6.06897357444559</v>
+        <v>19.163812</v>
       </c>
       <c r="I17">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J17">
-        <v>0.1770253691162955</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>71.404267207475</v>
+        <v>821.2295326666666</v>
       </c>
       <c r="N17">
-        <v>71.404267207475</v>
+        <v>2463.688598</v>
       </c>
       <c r="O17">
-        <v>0.07590017566881417</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="P17">
-        <v>0.07590017566881417</v>
+        <v>0.8346340193176814</v>
       </c>
       <c r="Q17">
-        <v>433.3506107848176</v>
+        <v>5245.962790957286</v>
       </c>
       <c r="R17">
-        <v>433.3506107848176</v>
+        <v>47213.66511861557</v>
       </c>
       <c r="S17">
-        <v>0.0134362566137635</v>
+        <v>0.1482909794006946</v>
       </c>
       <c r="T17">
-        <v>0.0134362566137635</v>
+        <v>0.1482909794006946</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.40546641079546</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H18">
-        <v>3.40546641079546</v>
+        <v>19.163812</v>
       </c>
       <c r="I18">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J18">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>790.745816029059</v>
+        <v>74.99448166666667</v>
       </c>
       <c r="N18">
-        <v>790.745816029059</v>
+        <v>224.983445</v>
       </c>
       <c r="O18">
-        <v>0.8405344483347963</v>
+        <v>0.07621857613528174</v>
       </c>
       <c r="P18">
-        <v>0.8405344483347963</v>
+        <v>0.07621857613528175</v>
       </c>
       <c r="Q18">
-        <v>2692.858315964007</v>
+        <v>479.0600492324822</v>
       </c>
       <c r="R18">
-        <v>2692.858315964007</v>
+        <v>4311.54044309234</v>
       </c>
       <c r="S18">
-        <v>0.08349344493197389</v>
+        <v>0.01354189625875449</v>
       </c>
       <c r="T18">
-        <v>0.08349344493197389</v>
+        <v>0.01354189625875449</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.40546641079546</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H19">
-        <v>3.40546641079546</v>
+        <v>19.163812</v>
       </c>
       <c r="I19">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J19">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.7719676100087</v>
+        <v>4.069220000000001</v>
       </c>
       <c r="N19">
-        <v>74.7719676100087</v>
+        <v>12.20766</v>
       </c>
       <c r="O19">
-        <v>0.0794799204396629</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="P19">
-        <v>0.0794799204396629</v>
+        <v>0.004135639682927042</v>
       </c>
       <c r="Q19">
-        <v>254.6334241649707</v>
+        <v>25.99392235554667</v>
       </c>
       <c r="R19">
-        <v>254.6334241649707</v>
+        <v>233.94530119992</v>
       </c>
       <c r="S19">
-        <v>0.007895039130845272</v>
+        <v>0.0007347867985670985</v>
       </c>
       <c r="T19">
-        <v>0.007895039130845272</v>
+        <v>0.0007347867985670985</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.40546641079546</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H20">
-        <v>3.40546641079546</v>
+        <v>19.163812</v>
       </c>
       <c r="I20">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J20">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>3.84345566615913</v>
+        <v>0.7919616666666668</v>
       </c>
       <c r="N20">
-        <v>3.84345566615913</v>
+        <v>2.375885</v>
       </c>
       <c r="O20">
-        <v>0.004085455556726705</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="P20">
-        <v>0.004085455556726705</v>
+        <v>0.000804888429729458</v>
       </c>
       <c r="Q20">
-        <v>13.08875917248641</v>
+        <v>5.059001497068889</v>
       </c>
       <c r="R20">
-        <v>13.08875917248641</v>
+        <v>45.53101347362001</v>
       </c>
       <c r="S20">
-        <v>0.0004058236509203958</v>
+        <v>0.000143006025144343</v>
       </c>
       <c r="T20">
-        <v>0.0004058236509203958</v>
+        <v>0.000143006025144343</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.40546641079546</v>
+        <v>6.387937333333333</v>
       </c>
       <c r="H21">
-        <v>3.40546641079546</v>
+        <v>19.163812</v>
       </c>
       <c r="I21">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="J21">
-        <v>0.09933375734615615</v>
+        <v>0.1776718609216568</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.404267207475</v>
+        <v>82.85448733333334</v>
       </c>
       <c r="N21">
-        <v>71.404267207475</v>
+        <v>248.563462</v>
       </c>
       <c r="O21">
-        <v>0.07590017566881417</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="P21">
-        <v>0.07590017566881417</v>
+        <v>0.08420687643438036</v>
       </c>
       <c r="Q21">
-        <v>243.1648335625198</v>
+        <v>529.2692728707938</v>
       </c>
       <c r="R21">
-        <v>243.1648335625198</v>
+        <v>4763.423455837145</v>
       </c>
       <c r="S21">
-        <v>0.007539449632416612</v>
+        <v>0.01496119243849637</v>
       </c>
       <c r="T21">
-        <v>0.007539449632416612</v>
+        <v>0.01496119243849637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H22">
+        <v>12.311642</v>
+      </c>
+      <c r="I22">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J22">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>821.2295326666666</v>
+      </c>
+      <c r="N22">
+        <v>2463.688598</v>
+      </c>
+      <c r="O22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="P22">
+        <v>0.8346340193176814</v>
+      </c>
+      <c r="Q22">
+        <v>3370.228002006435</v>
+      </c>
+      <c r="R22">
+        <v>30332.05201805791</v>
+      </c>
+      <c r="S22">
+        <v>0.09526838659295582</v>
+      </c>
+      <c r="T22">
+        <v>0.09526838659295581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H23">
+        <v>12.311642</v>
+      </c>
+      <c r="I23">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J23">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>74.99448166666667</v>
+      </c>
+      <c r="N23">
+        <v>224.983445</v>
+      </c>
+      <c r="O23">
+        <v>0.07621857613528174</v>
+      </c>
+      <c r="P23">
+        <v>0.07621857613528175</v>
+      </c>
+      <c r="Q23">
+        <v>307.7684034185211</v>
+      </c>
+      <c r="R23">
+        <v>2769.91563076669</v>
+      </c>
+      <c r="S23">
+        <v>0.008699885948522385</v>
+      </c>
+      <c r="T23">
+        <v>0.008699885948522385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H24">
+        <v>12.311642</v>
+      </c>
+      <c r="I24">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J24">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.069220000000001</v>
+      </c>
+      <c r="N24">
+        <v>12.20766</v>
+      </c>
+      <c r="O24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="P24">
+        <v>0.004135639682927042</v>
+      </c>
+      <c r="Q24">
+        <v>16.69959328641333</v>
+      </c>
+      <c r="R24">
+        <v>150.29633957772</v>
+      </c>
+      <c r="S24">
+        <v>0.0004720580649760199</v>
+      </c>
+      <c r="T24">
+        <v>0.0004720580649760198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H25">
+        <v>12.311642</v>
+      </c>
+      <c r="I25">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J25">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.7919616666666668</v>
+      </c>
+      <c r="N25">
+        <v>2.375885</v>
+      </c>
+      <c r="O25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="P25">
+        <v>0.000804888429729458</v>
+      </c>
+      <c r="Q25">
+        <v>3.250116172574444</v>
+      </c>
+      <c r="R25">
+        <v>29.25104555317</v>
+      </c>
+      <c r="S25">
+        <v>9.187310882720774E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.187310882720774E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.103880666666666</v>
+      </c>
+      <c r="H26">
+        <v>12.311642</v>
+      </c>
+      <c r="I26">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="J26">
+        <v>0.1141439054579135</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>82.85448733333334</v>
+      </c>
+      <c r="N26">
+        <v>248.563462</v>
+      </c>
+      <c r="O26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="P26">
+        <v>0.08420687643438036</v>
+      </c>
+      <c r="Q26">
+        <v>340.0249287138449</v>
+      </c>
+      <c r="R26">
+        <v>3060.224358424604</v>
+      </c>
+      <c r="S26">
+        <v>0.009611701742632121</v>
+      </c>
+      <c r="T26">
+        <v>0.009611701742632119</v>
       </c>
     </row>
   </sheetData>
